--- a/TAP_POM_Framework/data/TC0055.xlsx
+++ b/TAP_POM_Framework/data/TC0055.xlsx
@@ -27,7 +27,7 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>app_admin@ltts.com</t>
+    <t>sys_admin@ltts.com</t>
   </si>
   <si>
     <t>Rajravi@1</t>
